--- a/old_database/crypto/fastqFiles/fastq_3067.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_3067.xlsx
@@ -37,7 +37,7 @@
     <t>08.02.18</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_3067</t>
   </si>
   <si>
     <t>sequence/run_3067_samples/3067_Brent_HLB1_GTAC_50_CAATATCATCTC_S40_R1_001.fastq.gz</t>
